--- a/resources/Calibration_V2.xlsx
+++ b/resources/Calibration_V2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E161C-9EAB-439F-B143-C50E5365AC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863C6503-9CB1-4315-B781-99F1766CDDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilisation" sheetId="12" r:id="rId1"/>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="79">
   <si>
     <t>X</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Ultimaker Cura 4.12</t>
   </si>
   <si>
-    <t>oui</t>
-  </si>
-  <si>
     <t>coeficient d'expension thermique</t>
   </si>
   <si>
@@ -461,16 +458,19 @@
   <si>
     <t>Réglage de l'axe Z [pas par mm]</t>
   </si>
+  <si>
+    <t>Oui</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -846,7 +846,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -900,13 +900,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -915,11 +914,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -935,6 +934,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,12 +952,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -4037,558 +4036,48 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>896471</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:colOff>960504</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>2458890</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Gruppieren 19">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E40E7E8-819D-4CD5-8382-1ACC81AF370A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="896471" y="3798793"/>
-          <a:ext cx="2218764" cy="2790265"/>
-          <a:chOff x="201706" y="4527769"/>
-          <a:chExt cx="2218764" cy="2730255"/>
+          <a:off x="960504" y="3753971"/>
+          <a:ext cx="1498386" cy="2622176"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="21" name="Grafik 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="201706" y="4527769"/>
-            <a:ext cx="2218764" cy="2730255"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="22" name="Gruppieren 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="851647" y="4818529"/>
-            <a:ext cx="1488808" cy="2135943"/>
-            <a:chOff x="851647" y="4818529"/>
-            <a:chExt cx="1488808" cy="2135943"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="Textfeld 22">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1367118" y="4818529"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>9</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Textfeld 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1176618" y="5322794"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>8</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="Textfeld 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1042146" y="5132295"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>7</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="Textfeld 25">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1591235" y="5311589"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>6</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="Textfeld 26">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1557618" y="5983941"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>5</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="Textfeld 27">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2084295" y="5188324"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>1</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="Textfeld 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1826559" y="6174441"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>2</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="Textfeld 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1378323" y="6689912"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>3</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="31" name="Textfeld 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="851647" y="6331324"/>
-              <a:ext cx="256160" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>4</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="32" name="Gerade Verbindung mit Pfeil 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="1860176" y="5468471"/>
-              <a:ext cx="257736" cy="302558"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4950,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760AD8D4-1F8A-4AEA-B83E-DB08C31EDA57}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,7 +4459,7 @@
       <c r="A3" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="67">
         <v>44511</v>
       </c>
     </row>
@@ -5001,7 +4490,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5044,7 +4533,9 @@
       <c r="D9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="44" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5106,7 +4597,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="10">
@@ -5126,11 +4617,17 @@
     <protectedRange sqref="C14:C15" name="Bereich2"/>
     <protectedRange sqref="C16" name="Bereich2_1"/>
   </protectedRanges>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{9BF3083B-5D65-4AB0-B4B9-F93DA72E0C6F}">
+      <formula1>"Oui,Non"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{DBF4690F-FFD4-4218-A903-AF2D0825FC78}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{DBF4690F-FFD4-4218-A903-AF2D0825FC78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5138,16 +4635,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G23:G37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
@@ -5166,7 +4663,7 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="57">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -5176,7 +4673,7 @@
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="69" t="str">
         <f>Utilisation!B4</f>
         <v>Ender-3</v>
       </c>
@@ -5188,7 +4685,7 @@
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="74" t="str">
+      <c r="B4" s="69" t="str">
         <f>Utilisation!B5</f>
         <v>Ultimaker Cura 4.12</v>
       </c>
@@ -5200,9 +4697,9 @@
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="69" t="str">
         <f>Utilisation!B6</f>
-        <v>oui</v>
+        <v>Oui</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5212,7 +4709,7 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="69">
         <f>Utilisation!B7</f>
         <v>60</v>
       </c>
@@ -5225,7 +4722,7 @@
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="69">
         <f>Utilisation!B8</f>
         <v>20</v>
       </c>
@@ -5236,9 +4733,9 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="74">
+        <v>75</v>
+      </c>
+      <c r="B8" s="69">
         <f>Utilisation!B9</f>
         <v>68</v>
       </c>
@@ -5248,15 +4745,13 @@
       <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="58">
         <f>(B6-B7)*(B8*0.000001)</f>
         <v>2.7200000000000002E-3</v>
       </c>
@@ -5264,14 +4759,13 @@
         <v>57</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="48">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47">
         <f>1-B9</f>
         <v>0.99727999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
@@ -5297,7 +4791,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="75">
+      <c r="C13" s="70">
         <f>Utilisation!C14</f>
         <v>80</v>
       </c>
@@ -5305,7 +4799,7 @@
         <f>C18*C13</f>
         <v>79.809025760432647</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="59">
         <f>D13/C13</f>
         <v>0.99761282200540813</v>
       </c>
@@ -5318,7 +4812,7 @@
       <c r="C14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="73" t="str">
+      <c r="D14" s="68" t="str">
         <f>CONCATENATE("M92 ",B1,ROUND(D13,3))</f>
         <v>M92 X79.809</v>
       </c>
@@ -5351,7 +4845,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="29">
@@ -5371,14 +4865,14 @@
         <v>27</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="53">
+      <c r="C18" s="52">
         <f>SLOPE(C23:C37,H23:H37)</f>
         <v>0.99761282200540802</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
       <c r="D19" s="27"/>
@@ -5391,24 +4885,24 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="68" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="68" t="s">
+      <c r="F21" s="76"/>
+      <c r="G21" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="68" t="s">
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="71"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
@@ -5427,19 +4921,19 @@
       <c r="F22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="67" t="s">
+      <c r="K22" s="66" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5461,11 +4955,11 @@
         <f>D23-C23</f>
         <v>-5.0000000000000711E-2</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="48">
         <f>E23-$C$17</f>
         <v>2.8380952380952562E-2</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="71">
         <f t="shared" ref="G23:G37" si="0">D23*(-$B$9)</f>
         <v>-2.7064000000000001E-2</v>
       </c>
@@ -5477,7 +4971,7 @@
         <f t="shared" ref="I23:I37" si="2">H23-C23</f>
         <v>-2.29360000000014E-2</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="53">
         <f>H23*$C$18-C23</f>
         <v>-4.6753027631437405E-2</v>
       </c>
@@ -5504,11 +4998,11 @@
         <f>D24-C24</f>
         <v>-8.9999999999999858E-2</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="48">
         <f t="shared" ref="F24:F37" si="4">E24-$C$17</f>
         <v>-1.1619047619046585E-2</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="71">
         <f t="shared" si="0"/>
         <v>-5.4155200000000007E-2</v>
       </c>
@@ -5520,7 +5014,7 @@
         <f t="shared" si="2"/>
         <v>-3.5844799999999566E-2</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="53">
         <f t="shared" ref="J24:J37" si="5">H24*$C$18-C24</f>
         <v>-8.3502791974058965E-2</v>
       </c>
@@ -5547,11 +5041,11 @@
         <f t="shared" ref="E25:E37" si="7">D25-C25</f>
         <v>-5.9999999999998721E-2</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="48">
         <f t="shared" si="4"/>
         <v>1.8380952380954552E-2</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="71">
         <f t="shared" si="0"/>
         <v>-8.1436800000000004E-2</v>
       </c>
@@ -5563,7 +5057,7 @@
         <f t="shared" si="2"/>
         <v>2.1436800000000034E-2</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="53">
         <f t="shared" si="5"/>
         <v>-5.0229713294992706E-2</v>
       </c>
@@ -5590,11 +5084,11 @@
         <f t="shared" si="7"/>
         <v>-3.9999999999999147E-2</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="48">
         <f t="shared" si="4"/>
         <v>3.8380952380954125E-2</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="71">
         <f t="shared" si="0"/>
         <v>-0.10869120000000002</v>
       </c>
@@ -5606,7 +5100,7 @@
         <f t="shared" si="2"/>
         <v>6.8691200000003505E-2</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="53">
         <f t="shared" si="5"/>
         <v>-2.6959897904738739E-2</v>
       </c>
@@ -5633,11 +5127,11 @@
         <f t="shared" si="7"/>
         <v>-7.9999999999998295E-2</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="48">
         <f t="shared" si="4"/>
         <v>-1.619047619045022E-3</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="71">
         <f t="shared" si="0"/>
         <v>-0.13578240000000003</v>
       </c>
@@ -5649,7 +5143,7 @@
         <f t="shared" si="2"/>
         <v>5.5782399999998233E-2</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="53">
         <f t="shared" si="5"/>
         <v>-6.3709662247369181E-2</v>
       </c>
@@ -5676,11 +5170,11 @@
         <f t="shared" si="7"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="48">
         <f t="shared" si="4"/>
         <v>8.3809523809529884E-3</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="71">
         <f t="shared" si="0"/>
         <v>-0.1630096</v>
       </c>
@@ -5692,7 +5186,7 @@
         <f t="shared" si="2"/>
         <v>9.3009600000002024E-2</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="53">
         <f t="shared" si="5"/>
         <v>-5.04431101459204E-2</v>
       </c>
@@ -5719,11 +5213,11 @@
         <f t="shared" si="7"/>
         <v>-0.15000000000000568</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="48">
         <f t="shared" si="4"/>
         <v>-7.1619047619052412E-2</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="71">
         <f t="shared" si="0"/>
         <v>-0.18999199999999999</v>
       </c>
@@ -5735,7 +5229,7 @@
         <f t="shared" si="2"/>
         <v>3.9991999999998029E-2</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="53">
         <f t="shared" si="5"/>
         <v>-0.12720592764380001</v>
       </c>
@@ -5762,11 +5256,11 @@
         <f t="shared" si="7"/>
         <v>-0.17000000000000171</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="48">
         <f t="shared" si="4"/>
         <v>-9.1619047619048433E-2</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="71">
         <f t="shared" si="0"/>
         <v>-0.21713760000000001</v>
       </c>
@@ -5778,7 +5272,7 @@
         <f t="shared" si="2"/>
         <v>4.7137599999999225E-2</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="53">
         <f t="shared" si="5"/>
         <v>-0.14394916540879876</v>
       </c>
@@ -5805,11 +5299,11 @@
         <f t="shared" si="7"/>
         <v>-0.23999999999999488</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="48">
         <f t="shared" si="4"/>
         <v>-0.16161904761904161</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="71">
         <f t="shared" si="0"/>
         <v>-0.24414720000000004</v>
       </c>
@@ -5821,7 +5315,7 @@
         <f t="shared" si="2"/>
         <v>4.1472000000055687E-3</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="53">
         <f t="shared" si="5"/>
         <v>-0.21070871961785542</v>
       </c>
@@ -5848,11 +5342,11 @@
         <f t="shared" si="7"/>
         <v>-6.0000000000002274E-2</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="48">
         <f t="shared" si="4"/>
         <v>1.8380952380950999E-2</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="71">
         <f t="shared" si="0"/>
         <v>-0.27183679999999999</v>
       </c>
@@ -5864,7 +5358,7 @@
         <f t="shared" si="2"/>
         <v>0.21183680000000038</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="53">
         <f t="shared" si="5"/>
         <v>-2.7386691606608338E-2</v>
       </c>
@@ -5891,11 +5385,11 @@
         <f t="shared" si="7"/>
         <v>-0.21999999999999886</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="48">
         <f t="shared" si="4"/>
         <v>-0.14161904761904559</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="71">
         <f t="shared" si="0"/>
         <v>-0.29860160000000002</v>
       </c>
@@ -5907,7 +5401,7 @@
         <f t="shared" si="2"/>
         <v>7.8601599999998939E-2</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="53">
         <f t="shared" si="5"/>
         <v>-0.18417561541497207</v>
       </c>
@@ -5934,11 +5428,11 @@
         <f t="shared" si="7"/>
         <v>-4.9999999999997158E-2</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="48">
         <f t="shared" si="4"/>
         <v>2.8380952380956115E-2</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="71">
         <f t="shared" si="0"/>
         <v>-0.32626400000000005</v>
       </c>
@@ -5950,7 +5444,7 @@
         <f t="shared" si="2"/>
         <v>0.27626399999999762</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="53">
         <f t="shared" si="5"/>
         <v>-1.0856850692533726E-2</v>
       </c>
@@ -5977,11 +5471,11 @@
         <f t="shared" si="7"/>
         <v>-0.15999999999999659</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="48">
         <f t="shared" si="4"/>
         <v>-8.1619047619043317E-2</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="71">
         <f t="shared" si="0"/>
         <v>-0.35316480000000006</v>
       </c>
@@ -5993,7 +5487,7 @@
         <f t="shared" si="2"/>
         <v>0.19316480000000524</v>
       </c>
-      <c r="J35" s="54">
+      <c r="J35" s="53">
         <f t="shared" si="5"/>
         <v>-0.11762945805685376</v>
       </c>
@@ -6020,11 +5514,11 @@
         <f t="shared" si="7"/>
         <v>-0.12999999999999545</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="48">
         <f t="shared" si="4"/>
         <v>-5.161904761904218E-2</v>
       </c>
-      <c r="G36" s="76">
+      <c r="G36" s="71">
         <f t="shared" si="0"/>
         <v>-0.38044640000000002</v>
       </c>
@@ -6036,7 +5530,7 @@
         <f t="shared" si="2"/>
         <v>0.2504464000000155</v>
       </c>
-      <c r="J36" s="54">
+      <c r="J36" s="53">
         <f t="shared" si="5"/>
         <v>-8.4356379377766189E-2</v>
       </c>
@@ -6063,11 +5557,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="49">
         <f t="shared" si="4"/>
         <v>7.8380952380953273E-2</v>
       </c>
-      <c r="G37" s="77">
+      <c r="G37" s="72">
         <f t="shared" si="0"/>
         <v>-0.40800000000000003</v>
       </c>
@@ -6079,7 +5573,7 @@
         <f t="shared" si="2"/>
         <v>0.40799999999998704</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="54">
         <f t="shared" si="5"/>
         <v>4.8949332189408779E-2</v>
       </c>
@@ -6220,7 +5714,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
+      <c r="A51" s="56" t="s">
         <v>28</v>
       </c>
       <c r="I51" s="3">
@@ -6468,13 +5962,10 @@
       <formula2>B23*1.1</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6483,14 +5974,14 @@
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G22:G36"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
@@ -6509,7 +6000,7 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="57">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -6519,7 +6010,7 @@
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="69" t="str">
         <f>Utilisation!B4</f>
         <v>Ender-3</v>
       </c>
@@ -6531,7 +6022,7 @@
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="74" t="str">
+      <c r="B4" s="69" t="str">
         <f>Utilisation!B5</f>
         <v>Ultimaker Cura 4.12</v>
       </c>
@@ -6543,9 +6034,9 @@
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="69" t="str">
         <f>Utilisation!B6</f>
-        <v>oui</v>
+        <v>Oui</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6555,7 +6046,7 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="69">
         <f>Utilisation!B7</f>
         <v>60</v>
       </c>
@@ -6568,7 +6059,7 @@
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="69">
         <f>Utilisation!B8</f>
         <v>20</v>
       </c>
@@ -6579,9 +6070,9 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="74">
+        <v>75</v>
+      </c>
+      <c r="B8" s="69">
         <f>Utilisation!B9</f>
         <v>68</v>
       </c>
@@ -6591,15 +6082,13 @@
       <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="58">
         <f>(B6-B7)*(B8*0.000001)</f>
         <v>2.7200000000000002E-3</v>
       </c>
@@ -6607,14 +6096,13 @@
         <v>57</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="48">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47">
         <f>1-B9</f>
         <v>0.99727999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
@@ -6640,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="75">
+      <c r="C13" s="70">
         <f>Utilisation!C15</f>
         <v>80</v>
       </c>
@@ -6648,7 +6136,7 @@
         <f>C18*C13</f>
         <v>79.76926444301894</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="59">
         <f>D13/C13</f>
         <v>0.99711580553773671</v>
       </c>
@@ -6661,7 +6149,7 @@
       <c r="C14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="73" t="str">
+      <c r="D14" s="68" t="str">
         <f>CONCATENATE("M92 ",B1,ROUND(D13,3))</f>
         <v>M92 Y79.769</v>
       </c>
@@ -6694,7 +6182,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="29">
@@ -6721,31 +6209,31 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="68" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="68" t="s">
+      <c r="F20" s="76"/>
+      <c r="G20" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="68" t="s">
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="71"/>
+      <c r="K20" s="76"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
@@ -6770,7 +6258,7 @@
       <c r="H21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="51" t="s">
         <v>44</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -6798,11 +6286,11 @@
         <f>D22-C22</f>
         <v>-5.0000000000000711E-2</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="48">
         <f>E22-$C$17</f>
         <v>2.7714285714286496E-2</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="71">
         <f>D22*(-$B$9)</f>
         <v>-2.7064000000000001E-2</v>
       </c>
@@ -6814,7 +6302,7 @@
         <f t="shared" ref="I22:I36" si="1">H22-C22</f>
         <v>-2.29360000000014E-2</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="53">
         <f>H22*$C$18-C22</f>
         <v>-5.1711792738446505E-2</v>
       </c>
@@ -6841,11 +6329,11 @@
         <f>D23-C23</f>
         <v>-8.9999999999999858E-2</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="48">
         <f t="shared" ref="F23:F36" si="3">E23-$C$17</f>
         <v>-1.2285714285712651E-2</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="71">
         <f t="shared" ref="G23:G36" si="4">D23*(-$B$9)</f>
         <v>-5.4155200000000007E-2</v>
       </c>
@@ -6857,7 +6345,7 @@
         <f t="shared" si="1"/>
         <v>-3.5844799999999566E-2</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="53">
         <f t="shared" ref="J23:J36" si="5">H23*$C$18-C23</f>
         <v>-9.3425305871601694E-2</v>
       </c>
@@ -6884,11 +6372,11 @@
         <f t="shared" ref="E24:E36" si="7">D24-C24</f>
         <v>-5.9999999999998721E-2</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="48">
         <f t="shared" si="3"/>
         <v>1.7714285714288486E-2</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="71">
         <f t="shared" si="4"/>
         <v>-8.1436800000000004E-2</v>
       </c>
@@ -6900,7 +6388,7 @@
         <f t="shared" si="1"/>
         <v>2.1436800000000034E-2</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="53">
         <f t="shared" si="5"/>
         <v>-6.5150861767744317E-2</v>
       </c>
@@ -6927,11 +6415,11 @@
         <f t="shared" si="7"/>
         <v>-3.9999999999999147E-2</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="48">
         <f t="shared" si="3"/>
         <v>3.7714285714288059E-2</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="71">
         <f t="shared" si="4"/>
         <v>-0.10869120000000002</v>
       </c>
@@ -6943,7 +6431,7 @@
         <f t="shared" si="1"/>
         <v>6.8691200000003505E-2</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="53">
         <f t="shared" si="5"/>
         <v>-4.6874697269167598E-2</v>
       </c>
@@ -6970,11 +6458,11 @@
         <f t="shared" si="7"/>
         <v>-7.9999999999998295E-2</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="48">
         <f t="shared" si="3"/>
         <v>-2.2857142857110879E-3</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="71">
         <f t="shared" si="4"/>
         <v>-0.13578240000000003</v>
       </c>
@@ -6986,7 +6474,7 @@
         <f t="shared" si="1"/>
         <v>5.5782399999998233E-2</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="53">
         <f t="shared" si="5"/>
         <v>-8.8588210402335221E-2</v>
       </c>
@@ -7013,11 +6501,11 @@
         <f t="shared" si="7"/>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="48">
         <f t="shared" si="3"/>
         <v>7.7142857142869226E-3</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="71">
         <f t="shared" si="4"/>
         <v>-0.1630096</v>
       </c>
@@ -7029,7 +6517,7 @@
         <f t="shared" si="1"/>
         <v>9.3009600000002024E-2</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="53">
         <f t="shared" si="5"/>
         <v>-8.0310325509046265E-2</v>
       </c>
@@ -7056,11 +6544,11 @@
         <f t="shared" si="7"/>
         <v>-0.12000000000000455</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="48">
         <f t="shared" si="3"/>
         <v>-4.2285714285717341E-2</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="71">
         <f t="shared" si="4"/>
         <v>-0.19007360000000001</v>
       </c>
@@ -7072,7 +6560,7 @@
         <f t="shared" si="1"/>
         <v>7.0073600000000624E-2</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="53">
         <f t="shared" si="5"/>
         <v>-0.13202211824749099</v>
       </c>
@@ -7099,11 +6587,11 @@
         <f t="shared" si="7"/>
         <v>-0.10999999999999943</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="48">
         <f t="shared" si="3"/>
         <v>-3.2285714285712225E-2</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="71">
         <f t="shared" si="4"/>
         <v>-0.21730080000000002</v>
       </c>
@@ -7115,7 +6603,7 @@
         <f t="shared" si="1"/>
         <v>0.10730080000000441</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="53">
         <f t="shared" si="5"/>
         <v>-0.12374423335420204</v>
       </c>
@@ -7142,11 +6630,11 @@
         <f t="shared" si="7"/>
         <v>1.9999999999996021E-2</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="48">
         <f t="shared" si="3"/>
         <v>9.7714285714283228E-2</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="71">
         <f t="shared" si="4"/>
         <v>-0.2448544</v>
       </c>
@@ -7158,7 +6646,7 @@
         <f t="shared" si="1"/>
         <v>0.26485439999999016</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="53">
         <f t="shared" si="5"/>
         <v>4.5130068025116543E-3</v>
       </c>
@@ -7185,11 +6673,11 @@
         <f t="shared" si="7"/>
         <v>-7.9999999999998295E-2</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="48">
         <f t="shared" si="3"/>
         <v>-2.2857142857110879E-3</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="71">
         <f t="shared" si="4"/>
         <v>-0.27178240000000004</v>
       </c>
@@ -7201,7 +6689,7 @@
         <f t="shared" si="1"/>
         <v>0.19178240000000812</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="53">
         <f t="shared" si="5"/>
         <v>-9.7190183962354126E-2</v>
       </c>
@@ -7228,11 +6716,11 @@
         <f t="shared" si="7"/>
         <v>-7.9999999999998295E-2</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="48">
         <f t="shared" si="3"/>
         <v>-2.2857142857110879E-3</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="71">
         <f t="shared" si="4"/>
         <v>-0.29898240000000004</v>
       </c>
@@ -7244,7 +6732,7 @@
         <f t="shared" si="1"/>
         <v>0.21898240000000158</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="53">
         <f t="shared" si="5"/>
         <v>-9.8910578674363592E-2</v>
       </c>
@@ -7271,11 +6759,11 @@
         <f t="shared" si="7"/>
         <v>-9.0000000000003411E-2</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="48">
         <f t="shared" si="3"/>
         <v>-1.2285714285716204E-2</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="71">
         <f t="shared" si="4"/>
         <v>-0.32615520000000003</v>
       </c>
@@ -7287,7 +6775,7 @@
         <f t="shared" si="1"/>
         <v>0.2361551999999989</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="53">
         <f t="shared" si="5"/>
         <v>-0.11062925299165727</v>
       </c>
@@ -7314,11 +6802,11 @@
         <f t="shared" si="7"/>
         <v>-3.9999999999992042E-2</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="48">
         <f t="shared" si="3"/>
         <v>3.7714285714295165E-2</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="71">
         <f t="shared" si="4"/>
         <v>-0.35349120000000006</v>
       </c>
@@ -7330,7 +6818,7 @@
         <f t="shared" si="1"/>
         <v>0.31349120000001562</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="53">
         <f t="shared" si="5"/>
         <v>-6.2358249677203048E-2</v>
       </c>
@@ -7357,11 +6845,11 @@
         <f t="shared" si="7"/>
         <v>-6.0000000000002274E-2</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="48">
         <f t="shared" si="3"/>
         <v>1.7714285714284933E-2</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="71">
         <f t="shared" si="4"/>
         <v>-0.3806368</v>
       </c>
@@ -7373,7 +6861,7 @@
         <f t="shared" si="1"/>
         <v>0.3206367999999884</v>
       </c>
-      <c r="J35" s="54">
+      <c r="J35" s="53">
         <f t="shared" si="5"/>
         <v>-8.4075203599809356E-2</v>
       </c>
@@ -7400,11 +6888,11 @@
         <f t="shared" si="7"/>
         <v>-9.9999999999909051E-3</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="49">
         <f t="shared" si="3"/>
         <v>6.7714285714296302E-2</v>
       </c>
-      <c r="G36" s="77">
+      <c r="G36" s="72">
         <f t="shared" si="4"/>
         <v>-0.40797280000000008</v>
       </c>
@@ -7416,7 +6904,7 @@
         <f t="shared" si="1"/>
         <v>0.39797280000001933</v>
       </c>
-      <c r="J36" s="55">
+      <c r="J36" s="54">
         <f t="shared" si="5"/>
         <v>-3.5804200285355137E-2</v>
       </c>
@@ -7557,7 +7045,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="56" t="s">
         <v>28</v>
       </c>
       <c r="I50" s="3">
@@ -7806,13 +7294,10 @@
       <formula2>B22*1.1</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7820,15 +7305,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G23:G31"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="57.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
@@ -7849,7 +7334,7 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="57">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -7859,7 +7344,7 @@
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="69" t="str">
         <f>Utilisation!B4</f>
         <v>Ender-3</v>
       </c>
@@ -7871,7 +7356,7 @@
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="74" t="str">
+      <c r="B4" s="69" t="str">
         <f>Utilisation!B5</f>
         <v>Ultimaker Cura 4.12</v>
       </c>
@@ -7883,9 +7368,9 @@
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="69" t="str">
         <f>Utilisation!B6</f>
-        <v>oui</v>
+        <v>Oui</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -7895,7 +7380,7 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="69">
         <f>Utilisation!B7</f>
         <v>60</v>
       </c>
@@ -7908,7 +7393,7 @@
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="69">
         <f>Utilisation!B8</f>
         <v>20</v>
       </c>
@@ -7919,9 +7404,9 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="74">
+        <v>75</v>
+      </c>
+      <c r="B8" s="69">
         <f>Utilisation!B9</f>
         <v>68</v>
       </c>
@@ -7931,15 +7416,13 @@
       <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="44" t="s">
-        <v>11</v>
-      </c>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="58">
         <f>(B6-B7)*(B8*0.000001)</f>
         <v>2.7200000000000002E-3</v>
       </c>
@@ -7947,14 +7430,13 @@
         <v>57</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="F9" s="48">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47">
         <f>1-B9</f>
         <v>0.99727999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
@@ -7980,7 +7462,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="75">
+      <c r="C13" s="70">
         <f>Utilisation!C16</f>
         <v>400</v>
       </c>
@@ -7988,7 +7470,7 @@
         <f>B18*C13</f>
         <v>399.42575813418341</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="59">
         <f>D13/C13</f>
         <v>0.99856439533545849</v>
       </c>
@@ -8001,7 +7483,7 @@
       <c r="C14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="73" t="str">
+      <c r="D14" s="68" t="str">
         <f>CONCATENATE("M92 ",B1,ROUND(D13,3))</f>
         <v>M92 Z399.426</v>
       </c>
@@ -8044,7 +7526,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="29">
@@ -8084,14 +7566,14 @@
         <f>SLOPE(C27:C31,H27:H31)</f>
         <v>0.99856439533545849</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="61">
         <f>SLOPE(C23:C31,H23:H31)</f>
         <v>0.99646915781696477</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="2"/>
       <c r="C19" s="22"/>
       <c r="D19" s="27"/>
@@ -8104,24 +7586,24 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="68" t="s">
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="68" t="s">
+      <c r="F21" s="76"/>
+      <c r="G21" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="68" t="s">
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="71"/>
+      <c r="K21" s="76"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
@@ -8146,7 +7628,7 @@
       <c r="H22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="51" t="s">
         <v>44</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -8174,11 +7656,11 @@
         <f>D23-C23</f>
         <v>-0.17999999999999972</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="48">
         <f>E23-$C$17</f>
         <v>-2.0432946145723718E-2</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="71">
         <f t="shared" ref="G23:G31" si="0">D23*(-$B$9)</f>
         <v>-1.3110400000000001E-2</v>
       </c>
@@ -8190,7 +7672,7 @@
         <f t="shared" ref="I23:I31" si="2">H23-C23</f>
         <v>-0.16688959999999931</v>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="50">
         <f>H23*$C$18-C23</f>
         <v>-0.18395455007558592</v>
       </c>
@@ -8217,11 +7699,11 @@
         <f>D24-C24</f>
         <v>-0.21999999999999975</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="48">
         <f t="shared" ref="F24:F31" si="4">E24-$C$17</f>
         <v>-6.0432946145723754E-2</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="71">
         <f t="shared" si="0"/>
         <v>-1.3001600000000002E-2</v>
       </c>
@@ -8233,7 +7715,7 @@
         <f t="shared" si="2"/>
         <v>-0.2069983999999998</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="50">
         <f t="shared" ref="J24:J31" si="5">H24*$C$18-C24</f>
         <v>-0.22392173223263523</v>
       </c>
@@ -8260,11 +7742,11 @@
         <f t="shared" ref="E25:E31" si="7">D25-C25</f>
         <v>-0.17999999999999972</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="48">
         <f t="shared" si="4"/>
         <v>-2.0432946145723718E-2</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="71">
         <f t="shared" si="0"/>
         <v>-1.3110400000000001E-2</v>
       </c>
@@ -8276,7 +7758,7 @@
         <f t="shared" si="2"/>
         <v>-0.16688959999999931</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="50">
         <f t="shared" si="5"/>
         <v>-0.18395455007558592</v>
       </c>
@@ -8303,11 +7785,11 @@
         <f t="shared" si="7"/>
         <v>-0.17999999999999972</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="48">
         <f t="shared" si="4"/>
         <v>-2.0432946145723718E-2</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="71">
         <f t="shared" si="0"/>
         <v>-1.3110400000000001E-2</v>
       </c>
@@ -8319,7 +7801,7 @@
         <f t="shared" si="2"/>
         <v>-0.16688959999999931</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="50">
         <f t="shared" si="5"/>
         <v>-0.18395455007558592</v>
       </c>
@@ -8346,11 +7828,11 @@
         <f t="shared" si="7"/>
         <v>-3.0000000000001137E-2</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="48">
         <f t="shared" si="4"/>
         <v>0.12956705385427486</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="71">
         <f t="shared" si="0"/>
         <v>-0.13591839999999999</v>
       </c>
@@ -8362,7 +7844,7 @@
         <f t="shared" si="2"/>
         <v>0.10591840000000019</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="50">
         <f t="shared" si="5"/>
         <v>-7.0997690306441541E-2</v>
       </c>
@@ -8389,11 +7871,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="48">
         <f t="shared" si="4"/>
         <v>0.159567053854276</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="71">
         <f t="shared" si="0"/>
         <v>-0.20400000000000001</v>
       </c>
@@ -8405,7 +7887,7 @@
         <f t="shared" si="2"/>
         <v>0.20399999999999352</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="50">
         <f t="shared" si="5"/>
         <v>-6.1533455532980952E-2</v>
       </c>
@@ -8432,11 +7914,11 @@
         <f t="shared" si="7"/>
         <v>1.0000000000005116E-2</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="48">
         <f t="shared" si="4"/>
         <v>0.16956705385428111</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="71">
         <f t="shared" si="0"/>
         <v>-0.27202720000000002</v>
       </c>
@@ -8448,7 +7930,7 @@
         <f t="shared" si="2"/>
         <v>0.2820272000000017</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="50">
         <f t="shared" si="5"/>
         <v>-7.2052811838048569E-2</v>
       </c>
@@ -8475,11 +7957,11 @@
         <f t="shared" si="7"/>
         <v>-7.9999999999998295E-2</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="48">
         <f t="shared" si="4"/>
         <v>7.9567053854277703E-2</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="71">
         <f t="shared" si="0"/>
         <v>-0.33978240000000004</v>
       </c>
@@ -8491,7 +7973,7 @@
         <f t="shared" si="2"/>
         <v>0.25978240000000596</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="50">
         <f t="shared" si="5"/>
         <v>-0.1824901235357288</v>
       </c>
@@ -8518,11 +8000,11 @@
         <f t="shared" si="7"/>
         <v>-0.15000000000000568</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="49">
         <f t="shared" si="4"/>
         <v>9.5670538542703132E-3</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="72">
         <f t="shared" si="0"/>
         <v>-0.40759200000000001</v>
       </c>
@@ -8534,7 +8016,7 @@
         <f t="shared" si="2"/>
         <v>0.25759199999998827</v>
       </c>
-      <c r="J31" s="61">
+      <c r="J31" s="60">
         <f t="shared" si="5"/>
         <v>-0.27294384415489503</v>
       </c>
@@ -8693,7 +8175,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="56" t="s">
         <v>28</v>
       </c>
       <c r="I47" s="3">
@@ -8941,12 +8423,9 @@
       <formula2>B23*1.3</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>